--- a/xlsx/a69_f43_aUPPachuca.xlsx
+++ b/xlsx/a69_f43_aUPPachuca.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Desktop\3er Trimestre Fracciones faltantes\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\Fracciones con Cierre Trimestral\Actualización de Fracciones Cierre Presupuestal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16785" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>46791</t>
   </si>
@@ -154,14 +153,44 @@
     <t>Subdirección de Planeacion y Presupesto (UPP)</t>
   </si>
   <si>
-    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción v del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 26 de octubre del año en curso.</t>
+    <t>Ingresos Propios (UPP-Gobierno del Estado de Hidalgo)</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>Tesorería de la Federación</t>
+  </si>
+  <si>
+    <t>Gobierno del Estado de Hidalgo</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2020/a_septiembre_2020/02.estadopresupuestoingresos-clase-y-concepto.pdf</t>
+  </si>
+  <si>
+    <t>Ingresos por Venta de Bienes y Servicios de Organismos Descentralizados</t>
+  </si>
+  <si>
+    <t>Convenios</t>
+  </si>
+  <si>
+    <t>Subsidios y Subvenciones</t>
+  </si>
+  <si>
+    <t>Ingresos Propios</t>
+  </si>
+  <si>
+    <t>Subsidio Federal</t>
+  </si>
+  <si>
+    <t>Subsidio Estatal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -174,11 +203,21 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -223,10 +262,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -237,7 +277,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -249,11 +297,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -532,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,16 +590,16 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="87.5703125" customWidth="1"/>
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="68.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -562,38 +608,38 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -684,22 +730,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -745,7 +791,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2020</v>
       </c>
@@ -755,25 +801,205 @@
       <c r="C8" s="3">
         <v>44104</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="D8" s="2">
+        <v>71</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7949330.5199999996</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44104</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="K8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="3">
-        <v>44114</v>
-      </c>
-      <c r="M8" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="L8" s="5">
+        <v>44120</v>
+      </c>
+      <c r="M8" s="5">
+        <v>44120</v>
+      </c>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D9" s="2">
+        <v>83</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2">
+        <v>771.16</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="3">
+        <v>44104</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="5">
+        <v>44120</v>
+      </c>
+      <c r="M9" s="5">
+        <v>44120</v>
+      </c>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D10" s="2">
+        <v>93</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="2">
+        <v>15491007</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="3">
+        <v>44104</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="5">
+        <v>44120</v>
+      </c>
+      <c r="M10" s="5">
+        <v>44120</v>
+      </c>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D11" s="2">
+        <v>93</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="2">
+        <v>17058204</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="3">
+        <v>44104</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="5">
+        <v>44120</v>
+      </c>
+      <c r="M11" s="5">
+        <v>44120</v>
+      </c>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D12" s="2">
+        <v>93</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1241513.2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="3">
+        <v>44104</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="5">
+        <v>44120</v>
+      </c>
+      <c r="M12" s="5">
+        <v>44120</v>
+      </c>
+      <c r="N12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -785,7 +1011,13 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J11" r:id="rId1"/>
+    <hyperlink ref="J12" r:id="rId2"/>
+    <hyperlink ref="J8" r:id="rId3"/>
+    <hyperlink ref="J9" r:id="rId4"/>
+    <hyperlink ref="J10" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f43_aUPPachuca.xlsx
+++ b/xlsx/a69_f43_aUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\Fracciones con Cierre Trimestral\Actualización de Fracciones Cierre Presupuestal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\PRESUPUESTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>46791</t>
   </si>
@@ -153,44 +153,14 @@
     <t>Subdirección de Planeacion y Presupesto (UPP)</t>
   </si>
   <si>
-    <t>Ingresos Propios (UPP-Gobierno del Estado de Hidalgo)</t>
-  </si>
-  <si>
-    <t>SEP</t>
-  </si>
-  <si>
-    <t>Tesorería de la Federación</t>
-  </si>
-  <si>
-    <t>Gobierno del Estado de Hidalgo</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2020/a_septiembre_2020/02.estadopresupuestoingresos-clase-y-concepto.pdf</t>
-  </si>
-  <si>
-    <t>Ingresos por Venta de Bienes y Servicios de Organismos Descentralizados</t>
-  </si>
-  <si>
-    <t>Convenios</t>
-  </si>
-  <si>
-    <t>Subsidios y Subvenciones</t>
-  </si>
-  <si>
-    <t>Ingresos Propios</t>
-  </si>
-  <si>
-    <t>Subsidio Federal</t>
-  </si>
-  <si>
-    <t>Subsidio Estatal</t>
+    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción v del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 28 de enero del año en curso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -210,14 +180,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -262,14 +224,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -277,29 +252,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -578,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,16 +544,16 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="87.5703125" customWidth="1"/>
+    <col min="10" max="10" width="54.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="78.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -608,38 +562,38 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -685,7 +639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="7.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -730,22 +684,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -791,215 +745,35 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>2020</v>
       </c>
-      <c r="B8" s="3">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D8" s="2">
-        <v>71</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="2">
-        <v>7949330.5199999996</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="B8" s="9">
+        <v>44105</v>
+      </c>
+      <c r="C8" s="9">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="9">
+        <v>44206</v>
+      </c>
+      <c r="M8" s="9">
+        <v>44206</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="3">
-        <v>44104</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="5">
-        <v>44120</v>
-      </c>
-      <c r="M8" s="5">
-        <v>44120</v>
-      </c>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44013</v>
-      </c>
-      <c r="C9" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D9" s="2">
-        <v>83</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="2">
-        <v>771.16</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="3">
-        <v>44104</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="5">
-        <v>44120</v>
-      </c>
-      <c r="M9" s="5">
-        <v>44120</v>
-      </c>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B10" s="3">
-        <v>44013</v>
-      </c>
-      <c r="C10" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D10" s="2">
-        <v>93</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="2">
-        <v>15491007</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="3">
-        <v>44104</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="5">
-        <v>44120</v>
-      </c>
-      <c r="M10" s="5">
-        <v>44120</v>
-      </c>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B11" s="3">
-        <v>44013</v>
-      </c>
-      <c r="C11" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D11" s="2">
-        <v>93</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="2">
-        <v>17058204</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="3">
-        <v>44104</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="5">
-        <v>44120</v>
-      </c>
-      <c r="M11" s="5">
-        <v>44120</v>
-      </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44013</v>
-      </c>
-      <c r="C12" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D12" s="2">
-        <v>93</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1241513.2</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="3">
-        <v>44104</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="5">
-        <v>44120</v>
-      </c>
-      <c r="M12" s="5">
-        <v>44120</v>
-      </c>
-      <c r="N12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1011,13 +785,7 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J11" r:id="rId1"/>
-    <hyperlink ref="J12" r:id="rId2"/>
-    <hyperlink ref="J8" r:id="rId3"/>
-    <hyperlink ref="J9" r:id="rId4"/>
-    <hyperlink ref="J10" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f43_aUPPachuca.xlsx
+++ b/xlsx/a69_f43_aUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\PRESUPUESTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 4TO TRIMESTRE\Fracciones con Cierre Trimestral 4to 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>46791</t>
   </si>
@@ -153,14 +153,44 @@
     <t>Subdirección de Planeacion y Presupesto (UPP)</t>
   </si>
   <si>
-    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción v del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 28 de enero del año en curso</t>
+    <t>Ingresos por Venta de Bienes y Servicios de Organismos Descentralizados</t>
+  </si>
+  <si>
+    <t>Ingresos Propios</t>
+  </si>
+  <si>
+    <t>Ingresos Propios (UPP-Gobierno del Estado de Hidalgo)</t>
+  </si>
+  <si>
+    <t>Convenios</t>
+  </si>
+  <si>
+    <t>Subsidio Federal</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>Subsidios y Subvenciones</t>
+  </si>
+  <si>
+    <t>Tesorería de la Federación</t>
+  </si>
+  <si>
+    <t>Subsidio Estatal</t>
+  </si>
+  <si>
+    <t>Gobierno del Estado de Hidalgo</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2020/a_diciembre_2020/02.estadopresupuestoingresos-clase-y-concepto.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -180,6 +210,14 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -224,36 +262,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -532,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,16 +582,16 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="88.140625" customWidth="1"/>
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="78.85546875" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -562,38 +600,38 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -639,7 +677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="7.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -684,22 +722,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -745,35 +783,215 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="180" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2020</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>44105</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>44196</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8" t="s">
+      <c r="D8" s="3">
+        <v>71</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1593956.44</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="7">
+        <v>44196</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="7">
         <v>44206</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="7">
         <v>44206</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="7">
+        <v>44105</v>
+      </c>
+      <c r="C9" s="7">
+        <v>44196</v>
+      </c>
+      <c r="D9" s="3">
+        <v>83</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3">
+        <v>728.43</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="7">
+        <v>44196</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="7">
+        <v>44206</v>
+      </c>
+      <c r="M9" s="7">
+        <v>44206</v>
+      </c>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="7">
+        <v>44105</v>
+      </c>
+      <c r="C10" s="7">
+        <v>44196</v>
+      </c>
+      <c r="D10" s="3">
+        <v>93</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3">
+        <v>13918219</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="7">
+        <v>44196</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="7">
+        <v>44206</v>
+      </c>
+      <c r="M10" s="7">
+        <v>44206</v>
+      </c>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="7">
+        <v>44105</v>
+      </c>
+      <c r="C11" s="7">
+        <v>44196</v>
+      </c>
+      <c r="D11" s="3">
+        <v>93</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3">
+        <v>12786406</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="7">
+        <v>44196</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="7">
+        <v>44206</v>
+      </c>
+      <c r="M11" s="7">
+        <v>44206</v>
+      </c>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="7">
+        <v>44105</v>
+      </c>
+      <c r="C12" s="7">
+        <v>44196</v>
+      </c>
+      <c r="D12" s="3">
+        <v>93</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1241513</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="7">
+        <v>44196</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="7">
+        <v>44206</v>
+      </c>
+      <c r="M12" s="7">
+        <v>44206</v>
+      </c>
+      <c r="N12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -785,7 +1003,13 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J8" r:id="rId1"/>
+    <hyperlink ref="J9" r:id="rId2"/>
+    <hyperlink ref="J10" r:id="rId3"/>
+    <hyperlink ref="J11" r:id="rId4"/>
+    <hyperlink ref="J12" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f43_aUPPachuca.xlsx
+++ b/xlsx/a69_f43_aUPPachuca.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 4TO TRIMESTRE\Fracciones con Cierre Trimestral 4to 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>46791</t>
   </si>
@@ -153,44 +153,14 @@
     <t>Subdirección de Planeacion y Presupesto (UPP)</t>
   </si>
   <si>
-    <t>Ingresos por Venta de Bienes y Servicios de Organismos Descentralizados</t>
-  </si>
-  <si>
-    <t>Ingresos Propios</t>
-  </si>
-  <si>
-    <t>Ingresos Propios (UPP-Gobierno del Estado de Hidalgo)</t>
-  </si>
-  <si>
-    <t>Convenios</t>
-  </si>
-  <si>
-    <t>Subsidio Federal</t>
-  </si>
-  <si>
-    <t>SEP</t>
-  </si>
-  <si>
-    <t>Subsidios y Subvenciones</t>
-  </si>
-  <si>
-    <t>Tesorería de la Federación</t>
-  </si>
-  <si>
-    <t>Subsidio Estatal</t>
-  </si>
-  <si>
-    <t>Gobierno del Estado de Hidalgo</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2020/a_diciembre_2020/02.estadopresupuestoingresos-clase-y-concepto.pdf</t>
+    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción V del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 28 de abril del año en curso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -210,14 +180,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -262,11 +224,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -275,23 +236,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -570,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,16 +545,16 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="88.140625" customWidth="1"/>
+    <col min="10" max="10" width="54.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="62.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -600,38 +563,38 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -677,7 +640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -722,22 +685,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -783,215 +746,35 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="7">
-        <v>44105</v>
-      </c>
-      <c r="C8" s="7">
-        <v>44196</v>
-      </c>
-      <c r="D8" s="3">
-        <v>71</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1593956.44</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="7">
-        <v>44196</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>54</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="7">
-        <v>44206</v>
-      </c>
-      <c r="M8" s="7">
-        <v>44206</v>
-      </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="7">
-        <v>44105</v>
-      </c>
-      <c r="C9" s="7">
-        <v>44196</v>
-      </c>
-      <c r="D9" s="3">
-        <v>83</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="3">
-        <v>728.43</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="7">
-        <v>44196</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="7">
-        <v>44206</v>
-      </c>
-      <c r="M9" s="7">
-        <v>44206</v>
-      </c>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B10" s="7">
-        <v>44105</v>
-      </c>
-      <c r="C10" s="7">
-        <v>44196</v>
-      </c>
-      <c r="D10" s="3">
-        <v>93</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="3">
-        <v>13918219</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="7">
-        <v>44196</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="7">
-        <v>44206</v>
-      </c>
-      <c r="M10" s="7">
-        <v>44206</v>
-      </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B11" s="7">
-        <v>44105</v>
-      </c>
-      <c r="C11" s="7">
-        <v>44196</v>
-      </c>
-      <c r="D11" s="3">
-        <v>93</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="3">
-        <v>12786406</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="7">
-        <v>44196</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="7">
-        <v>44206</v>
-      </c>
-      <c r="M11" s="7">
-        <v>44206</v>
-      </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B12" s="7">
-        <v>44105</v>
-      </c>
-      <c r="C12" s="7">
-        <v>44196</v>
-      </c>
-      <c r="D12" s="3">
-        <v>93</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1241513</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="7">
-        <v>44196</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="7">
-        <v>44206</v>
-      </c>
-      <c r="M12" s="7">
-        <v>44206</v>
-      </c>
-      <c r="N12" s="2"/>
+      <c r="L8" s="4">
+        <v>44298</v>
+      </c>
+      <c r="M8" s="4">
+        <v>44298</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1003,13 +786,7 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J8" r:id="rId1"/>
-    <hyperlink ref="J9" r:id="rId2"/>
-    <hyperlink ref="J10" r:id="rId3"/>
-    <hyperlink ref="J11" r:id="rId4"/>
-    <hyperlink ref="J12" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f43_aUPPachuca.xlsx
+++ b/xlsx/a69_f43_aUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Cierre Presupuestal Ene-Marz21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>46791</t>
   </si>
@@ -153,14 +153,47 @@
     <t>Subdirección de Planeacion y Presupesto (UPP)</t>
   </si>
   <si>
-    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción V del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 28 de abril del año en curso</t>
+    <t>Ingresos por Venta de Bienes y Servicios de Organismos Descentralizados</t>
+  </si>
+  <si>
+    <t>Ingresos Propios</t>
+  </si>
+  <si>
+    <t>Ingresos Propios (UPP-Gobierno del Estado de Hidalgo)</t>
+  </si>
+  <si>
+    <t>Convenios</t>
+  </si>
+  <si>
+    <t>Subsidio Federal</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>CONACYT</t>
+  </si>
+  <si>
+    <t>Subsidios y Subvenciones</t>
+  </si>
+  <si>
+    <t>Tesorería de la Federación</t>
+  </si>
+  <si>
+    <t>Subsidio Estatal</t>
+  </si>
+  <si>
+    <t>Gobierno del Estado de Hidalgo</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2021/a_marzo_2021/02.estadopresupuestoingresos-clase-y-concepto.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -180,6 +213,14 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -224,15 +265,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -244,17 +285,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -533,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,16 +593,16 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="81.5703125" customWidth="1"/>
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="62.28515625" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -563,38 +611,38 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -640,7 +688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -685,96 +733,318 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="11" t="s">
         <v>41</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="225" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2021</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>44197</v>
       </c>
-      <c r="C8" s="4">
-        <v>44286</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3" t="s">
+      <c r="C8" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D8" s="2">
+        <v>71</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8345723.1699999999</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44286</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="4">
-        <v>44298</v>
-      </c>
-      <c r="M8" s="4">
-        <v>44298</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="L8" s="3">
+        <v>44298</v>
+      </c>
+      <c r="M8" s="3">
+        <v>44298</v>
+      </c>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D9" s="2">
+        <v>83</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2">
+        <v>661.59</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="3">
+        <v>44286</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="3">
+        <v>44298</v>
+      </c>
+      <c r="M9" s="3">
+        <v>44298</v>
+      </c>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D10" s="2">
+        <v>83</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3410822</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="3">
+        <v>44286</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="3">
+        <v>44298</v>
+      </c>
+      <c r="M10" s="3">
+        <v>44298</v>
+      </c>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D11" s="2">
+        <v>93</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="3">
+        <v>44286</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="3">
+        <v>44298</v>
+      </c>
+      <c r="M11" s="3">
+        <v>44298</v>
+      </c>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D12" s="2">
+        <v>93</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="2">
+        <v>15885236</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="3">
+        <v>44286</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="3">
+        <v>44298</v>
+      </c>
+      <c r="M12" s="3">
+        <v>44298</v>
+      </c>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D13" s="2">
+        <v>93</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1720737.3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="3">
+        <v>44286</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="3">
+        <v>44298</v>
+      </c>
+      <c r="M13" s="3">
+        <v>44298</v>
+      </c>
+      <c r="N13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -786,7 +1056,15 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J8" r:id="rId1"/>
+    <hyperlink ref="J9" r:id="rId2"/>
+    <hyperlink ref="J10" r:id="rId3"/>
+    <hyperlink ref="J11" r:id="rId4"/>
+    <hyperlink ref="J12" r:id="rId5"/>
+    <hyperlink ref="J13" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f43_aUPPachuca.xlsx
+++ b/xlsx/a69_f43_aUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Cierre Presupuestal Ene-Marz21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>46791</t>
   </si>
@@ -153,47 +153,14 @@
     <t>Subdirección de Planeacion y Presupesto (UPP)</t>
   </si>
   <si>
-    <t>Ingresos por Venta de Bienes y Servicios de Organismos Descentralizados</t>
-  </si>
-  <si>
-    <t>Ingresos Propios</t>
-  </si>
-  <si>
-    <t>Ingresos Propios (UPP-Gobierno del Estado de Hidalgo)</t>
-  </si>
-  <si>
-    <t>Convenios</t>
-  </si>
-  <si>
-    <t>Subsidio Federal</t>
-  </si>
-  <si>
-    <t>SEP</t>
-  </si>
-  <si>
-    <t>CONACYT</t>
-  </si>
-  <si>
-    <t>Subsidios y Subvenciones</t>
-  </si>
-  <si>
-    <t>Tesorería de la Federación</t>
-  </si>
-  <si>
-    <t>Subsidio Estatal</t>
-  </si>
-  <si>
-    <t>Gobierno del Estado de Hidalgo</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2021/a_marzo_2021/02.estadopresupuestoingresos-clase-y-concepto.pdf</t>
+    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción V del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 26 de julio del año en curso.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -213,14 +180,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -265,14 +224,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -280,29 +246,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -581,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD165"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,16 +544,16 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="81.5703125" customWidth="1"/>
+    <col min="10" max="10" width="54.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="81.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -611,38 +562,38 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -733,318 +684,96 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:14" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>2021</v>
       </c>
-      <c r="B8" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D8" s="2">
-        <v>71</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="B8" s="7">
+        <v>44287</v>
+      </c>
+      <c r="C8" s="7">
+        <v>44377</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7">
+        <v>44206</v>
+      </c>
+      <c r="M8" s="7">
+        <v>44206</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="2">
-        <v>8345723.1699999999</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="3">
-        <v>44286</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="3">
-        <v>44298</v>
-      </c>
-      <c r="M8" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C9" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D9" s="2">
-        <v>83</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="2">
-        <v>661.59</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="3">
-        <v>44286</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="3">
-        <v>44298</v>
-      </c>
-      <c r="M9" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C10" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D10" s="2">
-        <v>83</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3410822</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="3">
-        <v>44286</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="3">
-        <v>44298</v>
-      </c>
-      <c r="M10" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B11" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C11" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D11" s="2">
-        <v>93</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="3">
-        <v>44286</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="3">
-        <v>44298</v>
-      </c>
-      <c r="M11" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C12" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D12" s="2">
-        <v>93</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="2">
-        <v>15885236</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="3">
-        <v>44286</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="3">
-        <v>44298</v>
-      </c>
-      <c r="M12" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C13" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D13" s="2">
-        <v>93</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1720737.3</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="3">
-        <v>44286</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="3">
-        <v>44298</v>
-      </c>
-      <c r="M13" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1056,15 +785,7 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J8" r:id="rId1"/>
-    <hyperlink ref="J9" r:id="rId2"/>
-    <hyperlink ref="J10" r:id="rId3"/>
-    <hyperlink ref="J11" r:id="rId4"/>
-    <hyperlink ref="J12" r:id="rId5"/>
-    <hyperlink ref="J13" r:id="rId6"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f43_aUPPachuca.xlsx
+++ b/xlsx/a69_f43_aUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\CIERRE PRESUPUESTAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>46791</t>
   </si>
@@ -153,14 +153,47 @@
     <t>Subdirección de Planeacion y Presupesto (UPP)</t>
   </si>
   <si>
-    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción V del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 26 de julio del año en curso.</t>
+    <t>Ingresos por Venta de Bienes y Servicios de Organismos Descentralizados</t>
+  </si>
+  <si>
+    <t>Ingresos Propios</t>
+  </si>
+  <si>
+    <t>Ingresos Propios (UPP-Gobierno del Estado de Hidalgo)</t>
+  </si>
+  <si>
+    <t>Convenios</t>
+  </si>
+  <si>
+    <t>Subsidio Federal</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>CONACYT</t>
+  </si>
+  <si>
+    <t>Subsidios y Subvenciones</t>
+  </si>
+  <si>
+    <t>Tesorería de la Federación</t>
+  </si>
+  <si>
+    <t>Subsidio Estatal</t>
+  </si>
+  <si>
+    <t>Gobierno del Estado de Hidalgo</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2021/a_junio_2021/02.estadopresupuestoingresos-clase-y-concepto.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -180,6 +213,14 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -224,13 +265,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,22 +283,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -532,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,16 +593,16 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="82" customWidth="1"/>
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="81.42578125" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -562,38 +611,38 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -684,22 +733,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -745,7 +794,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2021</v>
       </c>
@@ -755,25 +804,247 @@
       <c r="C8" s="7">
         <v>44377</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="D8" s="6">
+        <v>71</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="6">
+        <v>16835138.129999999</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="7">
+        <v>44377</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="K8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="7">
-        <v>44206</v>
+        <v>44386</v>
       </c>
       <c r="M8" s="7">
-        <v>44206</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>44386</v>
+      </c>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="7">
+        <v>44287</v>
+      </c>
+      <c r="C9" s="7">
+        <v>44377</v>
+      </c>
+      <c r="D9" s="6">
+        <v>83</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1208.73</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="7">
+        <v>44377</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="7">
+        <v>44386</v>
+      </c>
+      <c r="M9" s="7">
+        <v>44386</v>
+      </c>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="7">
+        <v>44287</v>
+      </c>
+      <c r="C10" s="7">
+        <v>44377</v>
+      </c>
+      <c r="D10" s="6">
+        <v>83</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="6">
+        <v>3410822</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="7">
+        <v>44377</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="7">
+        <v>44386</v>
+      </c>
+      <c r="M10" s="7">
+        <v>44386</v>
+      </c>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="7">
+        <v>44287</v>
+      </c>
+      <c r="C11" s="7">
+        <v>44377</v>
+      </c>
+      <c r="D11" s="6">
+        <v>93</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="6">
+        <v>27513565</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="7">
+        <v>44377</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="7">
+        <v>44386</v>
+      </c>
+      <c r="M11" s="7">
+        <v>44386</v>
+      </c>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="7">
+        <v>44287</v>
+      </c>
+      <c r="C12" s="7">
+        <v>44377</v>
+      </c>
+      <c r="D12" s="6">
+        <v>93</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="6">
+        <v>28063836.300000001</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="7">
+        <v>44377</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="7">
+        <v>44386</v>
+      </c>
+      <c r="M12" s="7">
+        <v>44386</v>
+      </c>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="7">
+        <v>44287</v>
+      </c>
+      <c r="C13" s="7">
+        <v>44377</v>
+      </c>
+      <c r="D13" s="6">
+        <v>93</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1720737.3</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="7">
+        <v>44377</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="7">
+        <v>44386</v>
+      </c>
+      <c r="M13" s="7">
+        <v>44386</v>
+      </c>
+      <c r="N13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -785,7 +1056,14 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J8" r:id="rId1"/>
+    <hyperlink ref="J9" r:id="rId2"/>
+    <hyperlink ref="J10" r:id="rId3"/>
+    <hyperlink ref="J11" r:id="rId4"/>
+    <hyperlink ref="J12" r:id="rId5"/>
+    <hyperlink ref="J13" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f43_aUPPachuca.xlsx
+++ b/xlsx/a69_f43_aUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\CIERRE PRESUPUESTAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>46791</t>
   </si>
@@ -153,40 +153,7 @@
     <t>Subdirección de Planeacion y Presupesto (UPP)</t>
   </si>
   <si>
-    <t>Ingresos por Venta de Bienes y Servicios de Organismos Descentralizados</t>
-  </si>
-  <si>
-    <t>Ingresos Propios</t>
-  </si>
-  <si>
-    <t>Ingresos Propios (UPP-Gobierno del Estado de Hidalgo)</t>
-  </si>
-  <si>
-    <t>Convenios</t>
-  </si>
-  <si>
-    <t>Subsidio Federal</t>
-  </si>
-  <si>
-    <t>SEP</t>
-  </si>
-  <si>
-    <t>CONACYT</t>
-  </si>
-  <si>
-    <t>Subsidios y Subvenciones</t>
-  </si>
-  <si>
-    <t>Tesorería de la Federación</t>
-  </si>
-  <si>
-    <t>Subsidio Estatal</t>
-  </si>
-  <si>
-    <t>Gobierno del Estado de Hidalgo</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2021/a_junio_2021/02.estadopresupuestoingresos-clase-y-concepto.pdf</t>
+    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción V del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 27 de octubre del año en curso.</t>
   </si>
 </sst>
 </file>
@@ -215,12 +182,10 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -265,44 +230,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -581,28 +539,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="82" customWidth="1"/>
+    <col min="10" max="10" width="54.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" customWidth="1"/>
+    <col min="14" max="14" width="86.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -611,38 +569,38 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -733,22 +691,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -794,257 +752,35 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:14" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2021</v>
       </c>
-      <c r="B8" s="7">
-        <v>44287</v>
-      </c>
-      <c r="C8" s="7">
-        <v>44377</v>
-      </c>
-      <c r="D8" s="6">
-        <v>71</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="B8" s="3">
+        <v>44378</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44469</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="3">
+        <v>44480</v>
+      </c>
+      <c r="M8" s="3">
+        <v>44480</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="6">
-        <v>16835138.129999999</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="7">
-        <v>44377</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="7">
-        <v>44386</v>
-      </c>
-      <c r="M8" s="7">
-        <v>44386</v>
-      </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="7">
-        <v>44287</v>
-      </c>
-      <c r="C9" s="7">
-        <v>44377</v>
-      </c>
-      <c r="D9" s="6">
-        <v>83</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1208.73</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="7">
-        <v>44377</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="7">
-        <v>44386</v>
-      </c>
-      <c r="M9" s="7">
-        <v>44386</v>
-      </c>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="7">
-        <v>44287</v>
-      </c>
-      <c r="C10" s="7">
-        <v>44377</v>
-      </c>
-      <c r="D10" s="6">
-        <v>83</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="6">
-        <v>3410822</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="7">
-        <v>44377</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="7">
-        <v>44386</v>
-      </c>
-      <c r="M10" s="7">
-        <v>44386</v>
-      </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B11" s="7">
-        <v>44287</v>
-      </c>
-      <c r="C11" s="7">
-        <v>44377</v>
-      </c>
-      <c r="D11" s="6">
-        <v>93</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="6">
-        <v>27513565</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="7">
-        <v>44377</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="7">
-        <v>44386</v>
-      </c>
-      <c r="M11" s="7">
-        <v>44386</v>
-      </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B12" s="7">
-        <v>44287</v>
-      </c>
-      <c r="C12" s="7">
-        <v>44377</v>
-      </c>
-      <c r="D12" s="6">
-        <v>93</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="6">
-        <v>28063836.300000001</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="7">
-        <v>44377</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="7">
-        <v>44386</v>
-      </c>
-      <c r="M12" s="7">
-        <v>44386</v>
-      </c>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B13" s="7">
-        <v>44287</v>
-      </c>
-      <c r="C13" s="7">
-        <v>44377</v>
-      </c>
-      <c r="D13" s="6">
-        <v>93</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1720737.3</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="7">
-        <v>44377</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="7">
-        <v>44386</v>
-      </c>
-      <c r="M13" s="7">
-        <v>44386</v>
-      </c>
-      <c r="N13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1056,14 +792,7 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J8" r:id="rId1"/>
-    <hyperlink ref="J9" r:id="rId2"/>
-    <hyperlink ref="J10" r:id="rId3"/>
-    <hyperlink ref="J11" r:id="rId4"/>
-    <hyperlink ref="J12" r:id="rId5"/>
-    <hyperlink ref="J13" r:id="rId6"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f43_aUPPachuca.xlsx
+++ b/xlsx/a69_f43_aUPPachuca.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -153,14 +153,14 @@
     <t>Subdirección de Planeacion y Presupesto (UPP)</t>
   </si>
   <si>
-    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción V del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 27 de octubre del año en curso.</t>
+    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción V del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 28 de enero del año en curso.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -173,19 +173,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -233,19 +225,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -254,10 +245,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,13 +532,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -560,7 +549,7 @@
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="86.42578125" customWidth="1"/>
+    <col min="14" max="14" width="74.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -569,38 +558,38 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -691,22 +680,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -752,33 +741,33 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44378</v>
+        <v>44197</v>
       </c>
       <c r="C8" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+        <v>44561</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M8" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N8" s="5" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>44</v>
       </c>
     </row>

--- a/xlsx/a69_f43_aUPPachuca.xlsx
+++ b/xlsx/a69_f43_aUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>46791</t>
   </si>
@@ -150,17 +145,47 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>Subdirección de Planeacion y Presupesto (UPP)</t>
-  </si>
-  <si>
-    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción V del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 28 de enero del año en curso.</t>
+    <t>Subdirección de Planeación y Presupuesto (UPP)</t>
+  </si>
+  <si>
+    <t>Ingresos por Venta de Bienes y Servicios de Organismos Descentralizados</t>
+  </si>
+  <si>
+    <t>Ingresos Propios</t>
+  </si>
+  <si>
+    <t>Ingresos Propios (UPP-Gobierno del Estado de Hidalgo)</t>
+  </si>
+  <si>
+    <t>Subsidio Federal</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>Convenios</t>
+  </si>
+  <si>
+    <t>Subsidios y Subvenciones</t>
+  </si>
+  <si>
+    <t>Subsidio Estatal</t>
+  </si>
+  <si>
+    <t>Tesorería de la Federación</t>
+  </si>
+  <si>
+    <t>Gobierno del Estado de Hidalgo</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_marzo_2022/02.estadopresupuestoingresos-clase-y-concepto.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -173,11 +198,21 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -198,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -221,11 +256,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -236,22 +281,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,7 +571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,9 +579,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -540,16 +591,16 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="92.7109375" customWidth="1"/>
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="74.85546875" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -558,33 +609,33 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
@@ -680,22 +731,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -741,35 +792,215 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+        <v>44651</v>
+      </c>
+      <c r="D8" s="2">
+        <v>71</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9050942.1899999995</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44651</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="K8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="M8" s="3">
-        <v>44571</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>44</v>
-      </c>
+        <v>44659</v>
+      </c>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D9" s="2">
+        <v>83</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2">
+        <v>157.62</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="3">
+        <v>44651</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="3">
+        <v>44659</v>
+      </c>
+      <c r="M9" s="3">
+        <v>44659</v>
+      </c>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D10" s="2">
+        <v>93</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2">
+        <v>11122157</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="3">
+        <v>44651</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="3">
+        <v>44659</v>
+      </c>
+      <c r="M10" s="3">
+        <v>44659</v>
+      </c>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D11" s="2">
+        <v>93</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10783011</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="3">
+        <v>44651</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="3">
+        <v>44659</v>
+      </c>
+      <c r="M11" s="3">
+        <v>44659</v>
+      </c>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D12" s="2">
+        <v>93</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1711058.58</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="3">
+        <v>44651</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="3">
+        <v>44659</v>
+      </c>
+      <c r="M12" s="3">
+        <v>44659</v>
+      </c>
+      <c r="N12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -781,7 +1012,13 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J8" r:id="rId1"/>
+    <hyperlink ref="J9" r:id="rId2"/>
+    <hyperlink ref="J10" r:id="rId3"/>
+    <hyperlink ref="J11" r:id="rId4"/>
+    <hyperlink ref="J12" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f43_aUPPachuca.xlsx
+++ b/xlsx/a69_f43_aUPPachuca.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>46791</t>
   </si>
@@ -148,37 +153,7 @@
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
-    <t>Ingresos por Venta de Bienes y Servicios de Organismos Descentralizados</t>
-  </si>
-  <si>
-    <t>Ingresos Propios</t>
-  </si>
-  <si>
-    <t>Ingresos Propios (UPP-Gobierno del Estado de Hidalgo)</t>
-  </si>
-  <si>
-    <t>Subsidio Federal</t>
-  </si>
-  <si>
-    <t>SEP</t>
-  </si>
-  <si>
-    <t>Convenios</t>
-  </si>
-  <si>
-    <t>Subsidios y Subvenciones</t>
-  </si>
-  <si>
-    <t>Subsidio Estatal</t>
-  </si>
-  <si>
-    <t>Tesorería de la Federación</t>
-  </si>
-  <si>
-    <t>Gobierno del Estado de Hidalgo</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_marzo_2022/02.estadopresupuestoingresos-clase-y-concepto.pdf</t>
+    <t>La información solicitada se entregará a más tardar el día 30 de julio del año en curso en terminos del art. 58 de la Ley General de Contabilidad Gubernamental.</t>
   </si>
 </sst>
 </file>
@@ -207,9 +182,8 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -266,19 +240,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -286,21 +262,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -327,39 +299,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,151 +410,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,16 +587,16 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="92.7109375" customWidth="1"/>
+    <col min="10" max="10" width="54.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -609,33 +605,33 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
@@ -731,22 +727,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -792,215 +788,35 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2022</v>
       </c>
-      <c r="B8" s="3">
-        <v>44562</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D8" s="2">
-        <v>71</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="B8" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="2">
+        <v>44753</v>
+      </c>
+      <c r="M8" s="2">
+        <v>44753</v>
+      </c>
+      <c r="N8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="2">
-        <v>9050942.1899999995</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="3">
-        <v>44651</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="3">
-        <v>44659</v>
-      </c>
-      <c r="M8" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44562</v>
-      </c>
-      <c r="C9" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D9" s="2">
-        <v>83</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="2">
-        <v>157.62</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="3">
-        <v>44651</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="3">
-        <v>44659</v>
-      </c>
-      <c r="M9" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="3">
-        <v>44562</v>
-      </c>
-      <c r="C10" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D10" s="2">
-        <v>93</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="2">
-        <v>11122157</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="3">
-        <v>44651</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="3">
-        <v>44659</v>
-      </c>
-      <c r="M10" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="3">
-        <v>44562</v>
-      </c>
-      <c r="C11" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D11" s="2">
-        <v>93</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="2">
-        <v>10783011</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="3">
-        <v>44651</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="3">
-        <v>44659</v>
-      </c>
-      <c r="M11" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44562</v>
-      </c>
-      <c r="C12" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D12" s="2">
-        <v>93</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1711058.58</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="3">
-        <v>44651</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="3">
-        <v>44659</v>
-      </c>
-      <c r="M12" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1012,13 +828,6 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J8" r:id="rId1"/>
-    <hyperlink ref="J9" r:id="rId2"/>
-    <hyperlink ref="J10" r:id="rId3"/>
-    <hyperlink ref="J11" r:id="rId4"/>
-    <hyperlink ref="J12" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f43_aUPPachuca.xlsx
+++ b/xlsx/a69_f43_aUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -269,7 +264,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -331,7 +326,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,7 +361,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -577,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +591,7 @@
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="75.7109375" customWidth="1"/>
+    <col min="14" max="14" width="49.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -788,7 +783,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2022</v>
       </c>

--- a/xlsx/a69_f43_aUPPachuca.xlsx
+++ b/xlsx/a69_f43_aUPPachuca.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP Cierre Presupuestal 2do Tri 2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>46791</t>
   </si>
@@ -148,7 +165,40 @@
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
-    <t>La información solicitada se entregará a más tardar el día 30 de julio del año en curso en terminos del art. 58 de la Ley General de Contabilidad Gubernamental.</t>
+    <t>Ingresos por Venta de Bienes y Servicios de Organismos Descentralizados</t>
+  </si>
+  <si>
+    <t>Ingresos Propios</t>
+  </si>
+  <si>
+    <t>Ingresos Propios (UPP-Gobierno del Estado de Hidalgo)</t>
+  </si>
+  <si>
+    <t>Convenios</t>
+  </si>
+  <si>
+    <t>Subsidio Federal</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>Subsidios y Subvenciones</t>
+  </si>
+  <si>
+    <t>Tesorería de la Federación</t>
+  </si>
+  <si>
+    <t>Subsidio Estatal</t>
+  </si>
+  <si>
+    <t>Gobierno del Estado de Hidalgo</t>
+  </si>
+  <si>
+    <t>Otros Ingresos</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_junio_2022/02.estadopresupuestoingresos-clase-y-concepto.pdf</t>
   </si>
 </sst>
 </file>
@@ -177,8 +227,9 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -225,20 +276,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -249,25 +292,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -326,7 +371,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,7 +406,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,16 +627,16 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" customWidth="1"/>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="103.140625" customWidth="1"/>
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="49.140625" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -616,7 +661,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -627,11 +672,11 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -783,7 +828,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2022</v>
       </c>
@@ -793,14 +838,29 @@
       <c r="C8" s="2">
         <v>44742</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="4" t="s">
+      <c r="D8" s="3">
+        <v>71</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="3">
+        <f>19224562.31</f>
+        <v>19224562.309999999</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="2">
+        <v>44651</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="2">
@@ -809,9 +869,217 @@
       <c r="M8" s="2">
         <v>44753</v>
       </c>
-      <c r="N8" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D9" s="3">
+        <v>79</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="3">
+        <v>320330.49</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="2">
+        <v>44651</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="2">
+        <v>44753</v>
+      </c>
+      <c r="M9" s="2">
+        <v>44753</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D10" s="3">
+        <v>83</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="3">
+        <v>273.45</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="2">
+        <v>44651</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="2">
+        <v>44753</v>
+      </c>
+      <c r="M10" s="2">
+        <v>44753</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D11" s="3">
+        <v>93</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3">
+        <v>27831362</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="2">
+        <v>44651</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="2">
+        <v>44753</v>
+      </c>
+      <c r="M11" s="2">
+        <v>44753</v>
+      </c>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D12" s="3">
+        <v>93</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3">
+        <v>27805404</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="2">
+        <v>44651</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="2">
+        <v>44753</v>
+      </c>
+      <c r="M12" s="2">
+        <v>44753</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D13" s="3">
+        <v>93</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1711058.58</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="2">
+        <v>44651</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="2">
+        <v>44753</v>
+      </c>
+      <c r="M13" s="2">
+        <v>44753</v>
+      </c>
+      <c r="N13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -823,6 +1091,10 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J8" r:id="rId1"/>
+    <hyperlink ref="J9:J13" r:id="rId2" display="https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_junio_2022/02.estadopresupuestoingresos-clase-y-concepto.pdf"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f43_aUPPachuca.xlsx
+++ b/xlsx/a69_f43_aUPPachuca.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP Cierre Presupuestal 2do Tri 2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,6 +20,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -174,6 +171,9 @@
     <t>Ingresos Propios (UPP-Gobierno del Estado de Hidalgo)</t>
   </si>
   <si>
+    <t>Otros Ingresos</t>
+  </si>
+  <si>
     <t>Convenios</t>
   </si>
   <si>
@@ -195,10 +195,7 @@
     <t>Gobierno del Estado de Hidalgo</t>
   </si>
   <si>
-    <t>Otros Ingresos</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_junio_2022/02.estadopresupuestoingresos-clase-y-concepto.pdf</t>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_septiembre_2022/02estadopresupuestoiingresos-clase-y-concepto.pdf</t>
   </si>
 </sst>
 </file>
@@ -281,18 +278,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -301,14 +297,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -339,39 +329,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,166 +440,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -617,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,12 +593,12 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
     <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="103.140625" customWidth="1"/>
+    <col min="10" max="10" width="90.7109375" customWidth="1"/>
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
@@ -645,38 +611,38 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -767,22 +733,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -829,257 +795,257 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>2022</v>
       </c>
-      <c r="B8" s="2">
-        <v>44652</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44834</v>
+      </c>
+      <c r="D8" s="2">
         <v>71</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="3">
-        <f>19224562.31</f>
-        <v>19224562.309999999</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="2">
+        <v>27806004.77</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="2">
-        <v>44651</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="3">
+        <v>44834</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="2">
-        <v>44753</v>
-      </c>
-      <c r="M8" s="2">
-        <v>44753</v>
-      </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="L8" s="3">
+        <v>44844</v>
+      </c>
+      <c r="M8" s="3">
+        <v>44844</v>
+      </c>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>2022</v>
       </c>
-      <c r="B9" s="2">
-        <v>44652</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44834</v>
+      </c>
+      <c r="D9" s="2">
         <v>79</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2">
+        <v>320330.49</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="3">
+        <v>44834</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="3">
+        <v>44844</v>
+      </c>
+      <c r="M9" s="3">
+        <v>44844</v>
+      </c>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44834</v>
+      </c>
+      <c r="D10" s="2">
+        <v>83</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2">
+        <f>66.25+43.11+281.25</f>
+        <v>390.61</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="3">
+        <v>44834</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="3">
+        <v>44844</v>
+      </c>
+      <c r="M10" s="3">
+        <v>44844</v>
+      </c>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44834</v>
+      </c>
+      <c r="D11" s="2">
+        <v>93</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44514605</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="3">
+        <v>44834</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="3">
+        <v>44844</v>
+      </c>
+      <c r="M11" s="3">
+        <v>44844</v>
+      </c>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44834</v>
+      </c>
+      <c r="D12" s="2">
+        <v>93</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="2">
+        <v>41708106</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="3">
-        <v>320330.49</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="2">
-        <v>44651</v>
-      </c>
-      <c r="J9" s="9" t="s">
+      <c r="I12" s="3">
+        <v>44834</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="2">
-        <v>44753</v>
-      </c>
-      <c r="M9" s="2">
-        <v>44753</v>
-      </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="L12" s="3">
+        <v>44844</v>
+      </c>
+      <c r="M12" s="3">
+        <v>44844</v>
+      </c>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>2022</v>
       </c>
-      <c r="B10" s="2">
-        <v>44652</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D10" s="3">
-        <v>83</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="3">
-        <v>273.45</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="2">
-        <v>44651</v>
-      </c>
-      <c r="J10" s="9" t="s">
+      <c r="B13" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44834</v>
+      </c>
+      <c r="D13" s="2">
+        <v>93</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1711058.58</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="3">
+        <v>44834</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="2">
-        <v>44753</v>
-      </c>
-      <c r="M10" s="2">
-        <v>44753</v>
-      </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="2">
-        <v>44652</v>
-      </c>
-      <c r="C11" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D11" s="3">
-        <v>93</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="3">
-        <v>27831362</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="2">
-        <v>44651</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="2">
-        <v>44753</v>
-      </c>
-      <c r="M11" s="2">
-        <v>44753</v>
-      </c>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B12" s="2">
-        <v>44652</v>
-      </c>
-      <c r="C12" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D12" s="3">
-        <v>93</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="3">
-        <v>27805404</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="2">
-        <v>44651</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="2">
-        <v>44753</v>
-      </c>
-      <c r="M12" s="2">
-        <v>44753</v>
-      </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B13" s="2">
-        <v>44652</v>
-      </c>
-      <c r="C13" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D13" s="3">
-        <v>93</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1711058.58</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="2">
-        <v>44651</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="2">
-        <v>44753</v>
-      </c>
-      <c r="M13" s="2">
-        <v>44753</v>
-      </c>
-      <c r="N13" s="3"/>
+      <c r="L13" s="3">
+        <v>44844</v>
+      </c>
+      <c r="M13" s="3">
+        <v>44844</v>
+      </c>
+      <c r="N13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1093,7 +1059,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J8" r:id="rId1"/>
-    <hyperlink ref="J9:J13" r:id="rId2" display="https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_junio_2022/02.estadopresupuestoingresos-clase-y-concepto.pdf"/>
+    <hyperlink ref="J9:J13" r:id="rId2" display="https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_septiembre_2022/02estadopresupuestoiingresos-clase-y-concepto.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f43_aUPPachuca.xlsx
+++ b/xlsx/a69_f43_aUPPachuca.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -195,7 +194,7 @@
     <t>Gobierno del Estado de Hidalgo</t>
   </si>
   <si>
-    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_septiembre_2022/02estadopresupuestoiingresos-clase-y-concepto.pdf</t>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_diciembre_2022/02.estadopresupuestoingresos-clase-y-concepto.pdf</t>
   </si>
 </sst>
 </file>
@@ -250,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -273,20 +272,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -294,11 +302,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -329,39 +343,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,7 +410,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,142 +454,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -583,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,12 +631,12 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="90.7109375" customWidth="1"/>
+    <col min="10" max="10" width="79.7109375" customWidth="1"/>
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
@@ -627,7 +665,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -638,11 +676,11 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -794,258 +832,262 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2022</v>
       </c>
-      <c r="B8" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="2">
+        <v>44835</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D8" s="3">
         <v>71</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="2">
-        <v>27806004.77</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="3">
+        <f>29389808.98</f>
+        <v>29389808.98</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="3">
-        <v>44834</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="I8" s="2">
+        <v>44926</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="3">
-        <v>44844</v>
-      </c>
-      <c r="M8" s="3">
-        <v>44844</v>
-      </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="L8" s="2">
+        <v>44936</v>
+      </c>
+      <c r="M8" s="2">
+        <v>44936</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>2022</v>
       </c>
-      <c r="B9" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C9" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="2">
+        <v>44835</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D9" s="3">
         <v>79</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="2">
-        <v>320330.49</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="3">
+        <f>442195.99</f>
+        <v>442195.99</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="3">
-        <v>44834</v>
-      </c>
-      <c r="J9" s="8" t="s">
+      <c r="I9" s="2">
+        <v>44926</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="3">
-        <v>44844</v>
-      </c>
-      <c r="M9" s="3">
-        <v>44844</v>
-      </c>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="L9" s="2">
+        <v>44936</v>
+      </c>
+      <c r="M9" s="2">
+        <v>44936</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>2022</v>
       </c>
-      <c r="B10" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C10" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="2">
+        <v>44835</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D10" s="3">
         <v>83</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="2">
-        <f>66.25+43.11+281.25</f>
-        <v>390.61</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="3">
+        <f>507.84</f>
+        <v>507.84</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="3">
-        <v>44834</v>
-      </c>
-      <c r="J10" s="8" t="s">
+      <c r="I10" s="2">
+        <v>44926</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="3">
-        <v>44844</v>
-      </c>
-      <c r="M10" s="3">
-        <v>44844</v>
-      </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="L10" s="2">
+        <v>44936</v>
+      </c>
+      <c r="M10" s="2">
+        <v>44936</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>2022</v>
       </c>
-      <c r="B11" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C11" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="2">
+        <v>44835</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D11" s="3">
         <v>93</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="2">
-        <v>44514605</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="3">
+        <f>57765311</f>
+        <v>57765311</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="3">
-        <v>44834</v>
-      </c>
-      <c r="J11" s="8" t="s">
+      <c r="I11" s="2">
+        <v>44926</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="3">
-        <v>44844</v>
-      </c>
-      <c r="M11" s="3">
-        <v>44844</v>
-      </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="L11" s="2">
+        <v>44936</v>
+      </c>
+      <c r="M11" s="2">
+        <v>44936</v>
+      </c>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>2022</v>
       </c>
-      <c r="B12" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C12" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="2">
+        <v>44835</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D12" s="3">
         <v>93</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="2">
-        <v>41708106</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="3">
+        <f>57765311</f>
+        <v>57765311</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="3">
-        <v>44834</v>
-      </c>
-      <c r="J12" s="8" t="s">
+      <c r="I12" s="2">
+        <v>44926</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="3">
-        <v>44844</v>
-      </c>
-      <c r="M12" s="3">
-        <v>44844</v>
-      </c>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="L12" s="2">
+        <v>44936</v>
+      </c>
+      <c r="M12" s="2">
+        <v>44936</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>2022</v>
       </c>
-      <c r="B13" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C13" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B13" s="2">
+        <v>44835</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D13" s="3">
         <v>93</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>1711058.58</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="3">
-        <v>44834</v>
-      </c>
-      <c r="J13" s="8" t="s">
+      <c r="I13" s="2">
+        <v>44926</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="3">
-        <v>44844</v>
-      </c>
-      <c r="M13" s="3">
-        <v>44844</v>
-      </c>
-      <c r="N13" s="2"/>
+      <c r="L13" s="2">
+        <v>44936</v>
+      </c>
+      <c r="M13" s="2">
+        <v>44936</v>
+      </c>
+      <c r="N13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1059,7 +1101,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J8" r:id="rId1"/>
-    <hyperlink ref="J9:J13" r:id="rId2" display="https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_septiembre_2022/02estadopresupuestoiingresos-clase-y-concepto.pdf"/>
+    <hyperlink ref="J9:J13" r:id="rId2" display="https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_diciembre_2022/02.estadopresupuestoingresos-clase-y-concepto.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f43_aUPPachuca.xlsx
+++ b/xlsx/a69_f43_aUPPachuca.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>46791</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Ingresos Propios (UPP-Gobierno del Estado de Hidalgo)</t>
   </si>
   <si>
-    <t>Otros Ingresos</t>
-  </si>
-  <si>
     <t>Convenios</t>
   </si>
   <si>
@@ -194,14 +191,14 @@
     <t>Gobierno del Estado de Hidalgo</t>
   </si>
   <si>
-    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_diciembre_2022/02.estadopresupuestoingresos-clase-y-concepto.pdf</t>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2023/a_marzo_2023/02.estadopresupuestoiingresos-clase-y-concepto.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -221,6 +218,13 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -284,9 +288,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -297,12 +301,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -619,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,12 +638,12 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="79.7109375" customWidth="1"/>
+    <col min="10" max="10" width="88.140625" customWidth="1"/>
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
@@ -649,38 +656,38 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -771,22 +778,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -832,25 +839,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="2">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="2">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D8" s="3">
         <v>71</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="3">
-        <f>29389808.98</f>
-        <v>29389808.98</v>
+        <f>9896525.11</f>
+        <v>9896525.1099999994</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>45</v>
@@ -859,235 +866,147 @@
         <v>46</v>
       </c>
       <c r="I8" s="2">
-        <v>44926</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="3" t="s">
+        <v>45016</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="2">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="M8" s="2">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B9" s="2">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C9" s="2">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D9" s="3">
-        <v>79</v>
-      </c>
-      <c r="E9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>47</v>
       </c>
       <c r="F9" s="3">
-        <f>442195.99</f>
-        <v>442195.99</v>
+        <v>114.74</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I9" s="2">
-        <v>44926</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="3" t="s">
+        <v>45016</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="2">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="M9" s="2">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B10" s="2">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C10" s="2">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D10" s="3">
-        <v>83</v>
-      </c>
-      <c r="E10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3">
+        <v>15166584</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="3">
-        <f>507.84</f>
-        <v>507.84</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I10" s="2">
-        <v>44926</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="3" t="s">
+        <v>45016</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>43</v>
       </c>
       <c r="L10" s="2">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="M10" s="2">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B11" s="2">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C11" s="2">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D11" s="3">
         <v>93</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>51</v>
+      <c r="E11" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="F11" s="3">
-        <f>57765311</f>
-        <v>57765311</v>
+        <v>12198808</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I11" s="2">
-        <v>44926</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="3" t="s">
+        <v>45016</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>43</v>
       </c>
       <c r="L11" s="2">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="M11" s="2">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B12" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C12" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D12" s="3">
-        <v>93</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="3">
-        <f>57765311</f>
-        <v>57765311</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="2">
-        <v>44926</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="2">
-        <v>44936</v>
-      </c>
-      <c r="M12" s="2">
-        <v>44936</v>
-      </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B13" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C13" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D13" s="3">
-        <v>93</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1711058.58</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="2">
-        <v>44926</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="2">
-        <v>44936</v>
-      </c>
-      <c r="M13" s="2">
-        <v>44936</v>
-      </c>
-      <c r="N13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1101,7 +1020,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J8" r:id="rId1"/>
-    <hyperlink ref="J9:J13" r:id="rId2" display="https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_diciembre_2022/02.estadopresupuestoingresos-clase-y-concepto.pdf"/>
+    <hyperlink ref="J9:J11" r:id="rId2" display="https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2023/a_marzo_2023/02.estadopresupuestoiingresos-clase-y-concepto.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f43_aUPPachuca.xlsx
+++ b/xlsx/a69_f43_aUPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\Vo. Bo. Uno 2do Tri 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54C46BDC-D7AD-4043-80CD-C38CD75A06A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -164,24 +170,24 @@
     <t>Ingresos por Venta de Bienes y Servicios de Organismos Descentralizados</t>
   </si>
   <si>
+    <t>Convenios</t>
+  </si>
+  <si>
+    <t>Subsidios y Subvenciones</t>
+  </si>
+  <si>
     <t>Ingresos Propios</t>
   </si>
   <si>
     <t>Ingresos Propios (UPP-Gobierno del Estado de Hidalgo)</t>
   </si>
   <si>
-    <t>Convenios</t>
-  </si>
-  <si>
     <t>Subsidio Federal</t>
   </si>
   <si>
     <t>SEP</t>
   </si>
   <si>
-    <t>Subsidios y Subvenciones</t>
-  </si>
-  <si>
     <t>Tesorería de la Federación</t>
   </si>
   <si>
@@ -191,14 +197,14 @@
     <t>Gobierno del Estado de Hidalgo</t>
   </si>
   <si>
-    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2023/a_marzo_2023/02.estadopresupuestoiingresos-clase-y-concepto.pdf</t>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2023/a_junio_2023/02.estadopresupuestoiingresos-clase-y-concepto.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -218,13 +224,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -253,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -276,32 +275,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -309,13 +297,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -350,44 +341,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -415,14 +406,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -450,6 +458,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,175 +486,151 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="G3" sqref="G3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,12 +639,12 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="88.140625" customWidth="1"/>
+    <col min="10" max="10" width="74.42578125" customWidth="1"/>
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
@@ -672,7 +673,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -683,11 +684,11 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -839,174 +840,173 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2023</v>
       </c>
-      <c r="B8" s="2">
-        <v>44927</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45016</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="4">
+        <v>45017</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45107</v>
+      </c>
+      <c r="D8" s="8">
         <v>71</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="3">
-        <f>9896525.11</f>
-        <v>9896525.1099999994</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="2">
-        <v>45016</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="F8" s="8">
+        <v>21024209.899999999</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="9">
+        <v>45107</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="2">
-        <v>45026</v>
-      </c>
-      <c r="M8" s="2">
-        <v>45026</v>
-      </c>
-      <c r="N8" s="3"/>
+      <c r="L8" s="4">
+        <v>45117</v>
+      </c>
+      <c r="M8" s="4">
+        <v>45117</v>
+      </c>
+      <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2023</v>
       </c>
-      <c r="B9" s="2">
-        <v>44927</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45016</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="4">
+        <v>45017</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45107</v>
+      </c>
+      <c r="D9" s="8">
         <v>83</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="3">
-        <v>114.74</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="E9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="8">
+        <v>223.43</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="2">
-        <v>45016</v>
-      </c>
-      <c r="J9" s="8" t="s">
+      <c r="H9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="9">
+        <v>45107</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="2">
-        <v>45026</v>
-      </c>
-      <c r="M9" s="2">
-        <v>45026</v>
-      </c>
-      <c r="N9" s="3"/>
+      <c r="L9" s="4">
+        <v>45117</v>
+      </c>
+      <c r="M9" s="4">
+        <v>45117</v>
+      </c>
+      <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2023</v>
       </c>
-      <c r="B10" s="2">
-        <v>44927</v>
-      </c>
-      <c r="C10" s="2">
-        <v>45016</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="4">
+        <v>45017</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45107</v>
+      </c>
+      <c r="D10" s="8">
         <v>93</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="3">
-        <v>15166584</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="E10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="8">
+        <v>30333168</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="2">
-        <v>45016</v>
-      </c>
-      <c r="J10" s="8" t="s">
+      <c r="I10" s="9">
+        <v>45107</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="2">
-        <v>45026</v>
-      </c>
-      <c r="M10" s="2">
-        <v>45026</v>
-      </c>
-      <c r="N10" s="3"/>
+      <c r="L10" s="4">
+        <v>45117</v>
+      </c>
+      <c r="M10" s="4">
+        <v>45117</v>
+      </c>
+      <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2023</v>
       </c>
-      <c r="B11" s="2">
-        <v>44927</v>
-      </c>
-      <c r="C11" s="2">
-        <v>45016</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="4">
+        <v>45017</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45107</v>
+      </c>
+      <c r="D11" s="8">
         <v>93</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="3">
-        <v>12198808</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="E11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="8">
+        <v>27805404</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="2">
-        <v>45016</v>
-      </c>
-      <c r="J11" s="8" t="s">
+      <c r="I11" s="9">
+        <v>45107</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="2">
-        <v>45026</v>
-      </c>
-      <c r="M11" s="2">
-        <v>45026</v>
-      </c>
-      <c r="N11" s="3"/>
+      <c r="L11" s="4">
+        <v>45117</v>
+      </c>
+      <c r="M11" s="4">
+        <v>45117</v>
+      </c>
+      <c r="N11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1019,8 +1019,8 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J8" r:id="rId1"/>
-    <hyperlink ref="J9:J11" r:id="rId2" display="https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2023/a_marzo_2023/02.estadopresupuestoiingresos-clase-y-concepto.pdf"/>
+    <hyperlink ref="J8" r:id="rId1" xr:uid="{994BAF89-D068-4D86-B5F7-F3BACF69A529}"/>
+    <hyperlink ref="J9:J11" r:id="rId2" display="https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2023/a_junio_2023/02.estadopresupuestoiingresos-clase-y-concepto.pdf" xr:uid="{65DB6E55-366A-4E00-A239-3D8BE025F40A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
